--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/42_K.Maraş_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/42_K.Maraş_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC1EB8-CD2A-416E-9D84-1044BA40F115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3CD4DB-7426-4356-9617-6382672EF93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{BF910642-0503-4C4D-A33C-B26A469E3FFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{39FE8FED-EECF-491E-9BCE-B8FB66F2E446}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -26,6 +26,11 @@
     <sheet name="ŞUBAT" sheetId="114" r:id="rId11"/>
     <sheet name="OCAK" sheetId="113" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Criteria" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="0">#REF!</definedName>
@@ -219,10 +224,10 @@
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="10" hidden="1">ŞUBAT!$B:$D,ŞUBAT!#REF!</definedName>
     <definedName name="Z_825BD838_6642_41DE_A2D4_C5B158B48D61_.wvu.PrintTitles" localSheetId="5" hidden="1">TEMMUZ!$B:$D,TEMMUZ!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="rkarali - Kişisel Görünüm" guid="{9D8AC7D8-AEF7-4837-91CE-18DF972B485D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="702" activeSheetId="1"/>
     <customWorkbookView name="zkoksaldi - Kişisel Görünüm" guid="{01FD6900-BC48-42DD-8C5E-28776FF2193B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="837" activeSheetId="1"/>
-    <customWorkbookView name="rkarali - Kişisel Görünüm" guid="{9D8AC7D8-AEF7-4837-91CE-18DF972B485D}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="702" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -602,7 +607,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="182" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -802,7 +807,7 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,13 +816,13 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,19 +831,19 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,7 +852,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +861,7 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -867,13 +872,13 @@
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,10 +891,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{75FC9CA4-6716-4025-93C8-A98EF7E1F476}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0F439B2B-0328-471B-B6B0-4CAA9DCCB06B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{2E6DF93D-BDAC-4C7A-B851-801E6FFF9A88}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{0F38D371-5B9E-40B7-9536-3AFF55C68F33}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7B43443A-1C40-483A-BCA0-D47D3D2C0F35}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{3F4CE1FD-10DD-49CB-8EA0-A349C30D399A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{69BA9B7C-BC8C-46D3-BD85-264B9AE00700}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{C27B19CC-9ABF-42CA-B437-1CE5E2956092}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,6 +907,75 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Det2-Kum"/>
+      <sheetName val="Det2-Ayiçi"/>
+      <sheetName val="T1.7"/>
+      <sheetName val="T1.8"/>
+      <sheetName val="  T32"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="T38"/>
+      <sheetName val="T39"/>
+      <sheetName val="T40"/>
+      <sheetName val="T41"/>
+      <sheetName val="T42"/>
+      <sheetName val="T43"/>
+      <sheetName val="2005 OTV MAKTU KARŞILAŞTIRMA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,11 +1264,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95CBCC8-1298-4492-900E-16BCDFCE6F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A47988-B68D-4106-A734-A4632FCADFC7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -2476,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD4EEF9-D3AA-4B31-84E0-9EBC79F25F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB654A1-3D21-4213-A26E-8C7281F4FC24}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3717,7 +3791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B556C928-CB54-41F2-8D0C-56F83E063B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11210B6B-D9B9-4200-A198-F14EAA508AE5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4954,7 +5028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4449FF5E-5C75-4269-9BC4-B920A6CBB877}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E7B977-F5BA-4304-9BFB-1F38ED8C3B5D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6187,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FAD48D-F4A5-4B18-8D08-C5AAAF03BE03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD3C0C6-7DAD-4E49-ABE0-56EE6A54C0D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7470,7 +7544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDDBC0D-4DB5-46AB-A47A-898D87ED6562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23BE0A2-8A60-4210-881C-4ACE3E17067C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8753,7 +8827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6F9464-AAD4-4CB2-AD4F-8ACF67515872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012F083D-8135-4850-91A4-01EFB2212640}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10026,7 +10100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E24E462-C07C-4299-986C-F9C75E0CEF1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2D6541-91A7-4A18-9B0D-845A8F29E05B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11299,7 +11373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EA496A-DAD7-4D07-8D92-59B94B47D108}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C51822-B4FD-4B5B-A8E3-2713ED1C7CCE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12572,7 +12646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E54399-079C-4608-A1E2-F3ED8D04C150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7968-FD2B-4F31-8497-A83826090255}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13833,7 +13907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDAEE6C-980B-47F2-9362-F8ECAE5F977B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF04E309-1B37-4F5E-9BA6-A8B943790D9A}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15094,7 +15168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2EC905-40C9-4AFC-9B31-B8BC77649B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390FC89B-A576-4744-AA62-F23E1C1E7416}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
